--- a/Acervo Arquivológico/CA mapeamento importação Acervo_Arquivologico.xlsx
+++ b/Acervo Arquivológico/CA mapeamento importação Acervo_Arquivologico.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81133AD-8510-4AE9-B301-215DB221D835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapping" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Drop-down Lists" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Drop-down Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="existingRecordPolicy" vbProcedure="false">'Drop-down Lists'!$C$1:$C$13</definedName>
-    <definedName function="false" hidden="false" name="ignore_stop" vbProcedure="false">'Drop-down Lists'!$B$1:$B$2</definedName>
-    <definedName function="false" hidden="false" name="importer_type" vbProcedure="false">'Drop-down Lists'!$E$1:$E$3</definedName>
-    <definedName function="false" hidden="false" name="inputTypes" vbProcedure="false">'Drop-down Lists'!$E$1:$E$4</definedName>
-    <definedName function="false" hidden="false" name="Ruletypes" vbProcedure="false">'Drop-down Lists'!$A$1:$A$4</definedName>
-    <definedName function="false" hidden="false" name="RuletypesWRules" vbProcedure="false">'Drop-down Lists'!$A$1:$A$6</definedName>
-    <definedName function="false" hidden="false" name="table" vbProcedure="false">'Drop-down Lists'!$F$1:$F$16</definedName>
-    <definedName function="false" hidden="false" name="YES_NO" vbProcedure="false">'Drop-down Lists'!$D$1:$D$2</definedName>
+    <definedName name="existingRecordPolicy">'Drop-down Lists'!$C$1:$C$13</definedName>
+    <definedName name="ignore_stop">'Drop-down Lists'!$B$1:$B$2</definedName>
+    <definedName name="importer_type">'Drop-down Lists'!$E$1:$E$3</definedName>
+    <definedName name="inputTypes">'Drop-down Lists'!$E$1:$E$4</definedName>
+    <definedName name="Ruletypes">'Drop-down Lists'!$A$1:$A$4</definedName>
+    <definedName name="RuletypesWRules">'Drop-down Lists'!$A$1:$A$6</definedName>
+    <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
+    <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -31,435 +42,388 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="130">
-  <si>
-    <t xml:space="preserve">Rule type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA table.element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refinery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refinery parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replacement values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_num_orig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"suffix": " índice data - "}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_fundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_data_limite.data_limite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ "skipGroupIfEmpty": 1 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateJoiner</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{     "mode": "multiColumnRange", "startDay": "^4", "startMonth": "^5", "startYear": "^6", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"endDay": "^7", "endMonth": "^8", "endYear": "^9"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> }</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_data_limite.data_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{     "mode": "multiColumnDate", "day": "^7", "month": "^8", "year": "^9" }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_num_doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_aspecto_doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"skipIfValue": ["FALSO"]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERDADEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avulso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encadernado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_apresentacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manuscrito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impresso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datilografado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_est_conservacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_doc_especial1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recorte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desenho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_doc_especial2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.arq_conteudo.conteudo_assunto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importação arquivologico MDJVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human readable name of the mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbitrary text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapeamento_arq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alphanumeric code of the mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbitrary, no special characters or spaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inputFormats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLSX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets types of source (input) data that can be handled by this import mapping. Values are format codes defined by the various DataReader plugins. You can specify multiple formats by specifying their format codes in a semicolon delimited list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets the table for the imported data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponds to CollectiveAccess Basic Tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existingRecordPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determines how existing records are checked for and handled for the mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errorPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ignore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determines how errors are handled for the import. "Stop" will halt the entire import on any error.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arquivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the target record's type_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numInitialRowsToSkip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of rows at the top of the data set to skip. Use this setting to skip over column headers in spreadsheets and similar data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If this is not set, the first row of your data set (the headers) will be imported as a record.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_lots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_on_idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYSQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_entities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno_with_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMPDSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overwrite_on_idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inmagic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_occurrences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_on_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CollectiveAccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_places</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_preferred_labels_with_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMPXML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_movements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overwrite_on_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorldCat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_lot_events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pastperfectxml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_sets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno_and_preferred_labels_with_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TabDelimited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_set_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overwrite_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSVDelimited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_representations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_storage_locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_list_items</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
+  <si>
+    <t>Rule type</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>CA table.element</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>Refinery parameters</t>
+  </si>
+  <si>
+    <t>Original values</t>
+  </si>
+  <si>
+    <t>Replacement values</t>
+  </si>
+  <si>
+    <t>Source description</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_num_orig</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_fundo</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_data_limite.data_limite</t>
+  </si>
+  <si>
+    <t>date1</t>
+  </si>
+  <si>
+    <t>{ "skipGroupIfEmpty": 1 }</t>
+  </si>
+  <si>
+    <t>inicial</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_data_limite.data_info</t>
+  </si>
+  <si>
+    <t>date2</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_num_doc</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_aspecto_doc</t>
+  </si>
+  <si>
+    <t>avulso</t>
+  </si>
+  <si>
+    <t>encadernado</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_apresentacao</t>
+  </si>
+  <si>
+    <t>manuscrito</t>
+  </si>
+  <si>
+    <t>impresso</t>
+  </si>
+  <si>
+    <t>datilografado</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_est_conservacao</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>precario</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_doc_especial1</t>
+  </si>
+  <si>
+    <t>foto</t>
+  </si>
+  <si>
+    <t>diploma</t>
+  </si>
+  <si>
+    <t>recorte</t>
+  </si>
+  <si>
+    <t>negativo</t>
+  </si>
+  <si>
+    <t>desenho</t>
+  </si>
+  <si>
+    <t>outro</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_doc_especial2</t>
+  </si>
+  <si>
+    <t>ca_objects.arq_conteudo.conteudo_assunto</t>
+  </si>
+  <si>
+    <t>ca_objects.idno</t>
+  </si>
+  <si>
+    <t>Setting name</t>
+  </si>
+  <si>
+    <t>Setting value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Importação arquivologico MDJVI</t>
+  </si>
+  <si>
+    <t>Human readable name of the mapping</t>
+  </si>
+  <si>
+    <t>Arbitrary text</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Mapeamento_arq</t>
+  </si>
+  <si>
+    <t>Alphanumeric code of the mapping</t>
+  </si>
+  <si>
+    <t>Arbitrary, no special characters or spaces</t>
+  </si>
+  <si>
+    <t>inputFormats</t>
+  </si>
+  <si>
+    <t>XLSX</t>
+  </si>
+  <si>
+    <t>Sets types of source (input) data that can be handled by this import mapping. Values are format codes defined by the various DataReader plugins. You can specify multiple formats by specifying their format codes in a semicolon delimited list.</t>
+  </si>
+  <si>
+    <t>file type</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>ca_objects</t>
+  </si>
+  <si>
+    <t>Sets the table for the imported data</t>
+  </si>
+  <si>
+    <t>Corresponds to CollectiveAccess Basic Tables</t>
+  </si>
+  <si>
+    <t>existingRecordPolicy</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Determines how existing records are checked for and handled for the mapping</t>
+  </si>
+  <si>
+    <t>errorPolicy</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>Determines how errors are handled for the import. "Stop" will halt the entire import on any error.</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>arquivo</t>
+  </si>
+  <si>
+    <t>Set the target record's type_id</t>
+  </si>
+  <si>
+    <t>numInitialRowsToSkip</t>
+  </si>
+  <si>
+    <t>The number of rows at the top of the data set to skip. Use this setting to skip over column headers in spreadsheets and similar data.</t>
+  </si>
+  <si>
+    <t>If this is not set, the first row of your data set (the headers) will be imported as a record.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ca_object_lots</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>skip_on_idno</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>merge_on_idno</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>ca_entities</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>merge_on_idno_with_replace</t>
+  </si>
+  <si>
+    <t>FMPDSO</t>
+  </si>
+  <si>
+    <t>ca_collections</t>
+  </si>
+  <si>
+    <t>overwrite_on_idno</t>
+  </si>
+  <si>
+    <t>Inmagic</t>
+  </si>
+  <si>
+    <t>ca_occurrences</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>skip_on_preferred_labels</t>
+  </si>
+  <si>
+    <t>MARC</t>
+  </si>
+  <si>
+    <t>ca_loans</t>
+  </si>
+  <si>
+    <t>merge_on_preferred_labels</t>
+  </si>
+  <si>
+    <t>CollectiveAccess</t>
+  </si>
+  <si>
+    <t>ca_places</t>
+  </si>
+  <si>
+    <t>merge_on_preferred_labels_with_replace</t>
+  </si>
+  <si>
+    <t>FMPXML</t>
+  </si>
+  <si>
+    <t>ca_movements</t>
+  </si>
+  <si>
+    <t>overwrite_on_preferred_labels</t>
+  </si>
+  <si>
+    <t>TEI</t>
+  </si>
+  <si>
+    <t>ca_object_events</t>
+  </si>
+  <si>
+    <t>skip_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t>WorldCat</t>
+  </si>
+  <si>
+    <t>ca_object_lot_events</t>
+  </si>
+  <si>
+    <t>merge_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t>pastperfectxml</t>
+  </si>
+  <si>
+    <t>ca_sets</t>
+  </si>
+  <si>
+    <t>merge_on_idno_and_preferred_labels_with_replace</t>
+  </si>
+  <si>
+    <t>TabDelimited</t>
+  </si>
+  <si>
+    <t>ca_set_items</t>
+  </si>
+  <si>
+    <t>overwrite_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t>CSVDelimited</t>
+  </si>
+  <si>
+    <t>ca_object_representations</t>
+  </si>
+  <si>
+    <t>ULAN</t>
+  </si>
+  <si>
+    <t>ca_storage_locations</t>
+  </si>
+  <si>
+    <t>RDF</t>
+  </si>
+  <si>
+    <t>ca_lists</t>
+  </si>
+  <si>
+    <t>ca_list_items</t>
+  </si>
+  <si>
+    <t>{"skipIfValue": ["0"]}</t>
+  </si>
+  <si>
+    <t>{"suffix": " - índice data"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;BOOL&quot;E&quot;AN&quot;"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -468,22 +432,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -497,7 +446,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -505,13 +454,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -527,7 +470,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -535,121 +478,376 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="65.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="43.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="74.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.25"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="40.75" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="65.125" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="25.625" customWidth="1"/>
+    <col min="10" max="10" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="74.25" customWidth="1"/>
+    <col min="12" max="26" width="12" customWidth="1"/>
+    <col min="27" max="1025" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,11 +897,11 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -730,11 +928,11 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -742,7 +940,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="5"/>
@@ -764,15 +962,15 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="7"/>
@@ -798,28 +996,24 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>4</v>
+      <c r="B5">
+        <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
@@ -840,18 +1034,18 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
@@ -876,28 +1070,24 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
@@ -918,18 +1108,18 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -954,15 +1144,15 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="8"/>
@@ -988,11 +1178,11 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1022,27 +1212,27 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>28</v>
+      <c r="C11" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="0" t="s">
-        <v>30</v>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
@@ -1062,27 +1252,27 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>14</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>28</v>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
+      <c r="E12" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="6" t="s">
-        <v>30</v>
+      <c r="H12" s="6">
+        <v>1</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
@@ -1102,27 +1292,27 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>15</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>33</v>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
+      <c r="E13" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="6" t="s">
-        <v>30</v>
+      <c r="H13" s="6">
+        <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
@@ -1142,27 +1332,27 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>16</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>33</v>
+      <c r="C14" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
+      <c r="E14" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
+      <c r="H14" s="6">
+        <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
@@ -1182,27 +1372,27 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>17</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>33</v>
+      <c r="C15" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
+      <c r="E15" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="6" t="s">
-        <v>30</v>
+      <c r="H15" s="6">
+        <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
@@ -1222,27 +1412,27 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>18</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>37</v>
+      <c r="C16" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
+      <c r="E16" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="6" t="s">
-        <v>30</v>
+      <c r="H16" s="6">
+        <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
@@ -1262,27 +1452,27 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>19</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>37</v>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
+      <c r="E17" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="6" t="s">
-        <v>30</v>
+      <c r="H17" s="6">
+        <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
@@ -1302,27 +1492,27 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>20</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>37</v>
+      <c r="C18" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>29</v>
+      <c r="E18" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="6" t="s">
-        <v>30</v>
+      <c r="H18" s="6">
+        <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
@@ -1342,27 +1532,27 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>21</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>41</v>
+      <c r="C19" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
+      <c r="E19" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="6" t="s">
-        <v>30</v>
+      <c r="H19" s="6">
+        <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
@@ -1382,27 +1572,27 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>22</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>41</v>
+      <c r="C20" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
+      <c r="E20" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="6" t="s">
-        <v>30</v>
+      <c r="H20" s="6">
+        <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
@@ -1422,27 +1612,27 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>23</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>41</v>
+      <c r="C21" t="s">
+        <v>34</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
+      <c r="E21" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="6" t="s">
-        <v>30</v>
+      <c r="H21" s="6">
+        <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
@@ -1462,27 +1652,27 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>24</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>41</v>
+      <c r="C22" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
+      <c r="E22" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="6" t="s">
-        <v>30</v>
+      <c r="H22" s="6">
+        <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="2"/>
@@ -1502,27 +1692,27 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>25</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>41</v>
+      <c r="C23" t="s">
+        <v>34</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
+      <c r="E23" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="6" t="s">
-        <v>30</v>
+      <c r="H23" s="6">
+        <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="2"/>
@@ -1542,27 +1732,27 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>27</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>41</v>
+      <c r="C24" t="s">
+        <v>34</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>29</v>
+      <c r="E24" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="6" t="s">
-        <v>30</v>
+      <c r="H24" s="6">
+        <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="2"/>
@@ -1582,15 +1772,15 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>26</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>48</v>
+      <c r="C25" t="s">
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
@@ -1616,15 +1806,15 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>28</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
@@ -1650,15 +1840,15 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>30</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
@@ -1684,7 +1874,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="C28" s="6"/>
       <c r="D28" s="2"/>
@@ -1711,7 +1901,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1739,7 +1929,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1767,16 +1957,16 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
@@ -1803,21 +1993,21 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1841,21 +2031,21 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1879,21 +2069,21 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1917,21 +2107,21 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1955,18 +2145,18 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1991,18 +2181,18 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1"/>
@@ -2027,18 +2217,18 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2063,21 +2253,21 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2102,260 +2292,258 @@
       <c r="Z39" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:A28 A31:A39" type="list">
+  <dataValidations count="4">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="A1:A28 A31:A39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>RuletypesWRules</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C35" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C35" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>table</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C36" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C36" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>existingRecordPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C37" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C37" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>ignore_stop</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C34" type="list">
-      <formula1>'Drop-down Lists'!$E$1:$E$15</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>'Drop-down Lists'!$E$1:$E$15</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.25"/>
+    <col min="1" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="26" width="8.625" customWidth="1"/>
+    <col min="27" max="1025" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="E3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="F3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E4" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F4" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E7" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E8" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F8" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="0" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="E9" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F9" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="0" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="E10" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F10" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="0" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="E11" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F11" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="0" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="E12" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F12" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="0" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+      <c r="E13" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F13" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="0" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+      <c r="F14" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="0" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F16" s="0" t="s">
-        <v>129</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>